--- a/apps/load_data/2016/02/PLMOVMAE.xlsx
+++ b/apps/load_data/2016/02/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2016\HHY0216\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2016\HHY0216\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227D3F72-E4F2-4D03-A46C-9BC5965C77F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6014F148-94A6-4624-A2EB-66FBC2299338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$334</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$278</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12985" uniqueCount="2773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12969" uniqueCount="2772">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7226,9 +7227,6 @@
   </si>
   <si>
     <t>0142A         1</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047     93844     938441081    296920    2969201082    159880    1598802001         0     386002006     38900     389002026    189258    1892582086      2500      25002180       250       2502182       100       1002503        50        50</t>
@@ -9200,8 +9198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="K338" sqref="K338"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD244" sqref="AC244:AD324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50367,12 +50365,7 @@
       <c r="AA244" s="1">
         <v>0</v>
       </c>
-      <c r="AC244" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD244" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC244" s="3"/>
       <c r="AF244" s="1" t="s">
         <v>103</v>
       </c>
@@ -50437,7 +50430,7 @@
         <v>112</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BI244" s="1" t="s">
         <v>2054</v>
@@ -50449,7 +50442,7 @@
         <v>102</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>119</v>
@@ -50470,13 +50463,13 @@
         <v>108</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2405</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2406</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -50511,19 +50504,19 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2407</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2408</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2409</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="Q245" s="3">
         <v>27241</v>
@@ -50549,12 +50542,7 @@
       <c r="AB245" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="AC245" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD245" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC245" s="3"/>
       <c r="AF245" s="1" t="s">
         <v>103</v>
       </c>
@@ -50601,7 +50589,7 @@
         <v>108</v>
       </c>
       <c r="AZ245" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BB245" s="1">
         <v>2</v>
@@ -50619,7 +50607,7 @@
         <v>112</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BI245" s="1" t="s">
         <v>1667</v>
@@ -50634,13 +50622,13 @@
         <v>99</v>
       </c>
       <c r="BR245" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BS245" s="3">
         <v>36949</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>119</v>
@@ -50664,13 +50652,13 @@
         <v>108</v>
       </c>
       <c r="CC245" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="CD245" s="1" t="s">
         <v>1964</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -50705,19 +50693,19 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2419</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P246" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="Q246" s="3">
         <v>25223</v>
@@ -50743,12 +50731,7 @@
       <c r="AB246" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="AC246" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD246" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC246" s="3"/>
       <c r="AF246" s="1" t="s">
         <v>103</v>
       </c>
@@ -50795,7 +50778,7 @@
         <v>108</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BB246" s="1">
         <v>2</v>
@@ -50816,10 +50799,10 @@
         <v>112</v>
       </c>
       <c r="BH246" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="BI246" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="BI246" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>115</v>
@@ -50831,13 +50814,13 @@
         <v>99</v>
       </c>
       <c r="BR246" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BS246" s="3">
         <v>36825</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>119</v>
@@ -50861,13 +50844,13 @@
         <v>108</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="CD246" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="CD246" s="1" t="s">
+      <c r="CE246" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>2428</v>
       </c>
     </row>
     <row r="247" spans="1:83" x14ac:dyDescent="0.25">
@@ -50902,19 +50885,19 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="Q247" s="3">
         <v>27018</v>
@@ -50937,12 +50920,7 @@
       <c r="AA247" s="1">
         <v>0</v>
       </c>
-      <c r="AC247" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD247" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC247" s="3"/>
       <c r="AF247" s="1" t="s">
         <v>103</v>
       </c>
@@ -50992,7 +50970,7 @@
         <v>108</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BB247" s="1">
         <v>2</v>
@@ -51010,7 +50988,7 @@
         <v>112</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BI247" s="1" t="s">
         <v>194</v>
@@ -51022,7 +51000,7 @@
         <v>102</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>119</v>
@@ -51040,13 +51018,13 @@
         <v>108</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>1238</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -51081,19 +51059,19 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="N248" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="Q248" s="3">
         <v>29037</v>
@@ -51116,12 +51094,7 @@
       <c r="AA248" s="1">
         <v>0</v>
       </c>
-      <c r="AC248" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD248" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC248" s="3"/>
       <c r="AF248" s="1" t="s">
         <v>103</v>
       </c>
@@ -51171,7 +51144,7 @@
         <v>108</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BB248" s="1">
         <v>2</v>
@@ -51189,7 +51162,7 @@
         <v>112</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BI248" s="1" t="s">
         <v>795</v>
@@ -51201,7 +51174,7 @@
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>119</v>
@@ -51222,10 +51195,10 @@
         <v>713</v>
       </c>
       <c r="CD248" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="CE248" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2446</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -51260,19 +51233,19 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="Q249" s="3">
         <v>26647</v>
@@ -51295,12 +51268,7 @@
       <c r="AA249" s="1">
         <v>0</v>
       </c>
-      <c r="AC249" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD249" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC249" s="3"/>
       <c r="AF249" s="1" t="s">
         <v>103</v>
       </c>
@@ -51350,7 +51318,7 @@
         <v>108</v>
       </c>
       <c r="AZ249" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BB249" s="1">
         <v>2</v>
@@ -51368,7 +51336,7 @@
         <v>112</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI249" s="1" t="s">
         <v>194</v>
@@ -51380,7 +51348,7 @@
         <v>102</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>119</v>
@@ -51398,13 +51366,13 @@
         <v>108</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="CD249" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="CE249" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="CD249" s="1" t="s">
-        <v>2454</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -51439,19 +51407,19 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="N250" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="Q250" s="3">
         <v>25405</v>
@@ -51480,12 +51448,7 @@
       <c r="AA250" s="1">
         <v>0</v>
       </c>
-      <c r="AC250" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD250" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC250" s="3"/>
       <c r="AF250" s="1" t="s">
         <v>103</v>
       </c>
@@ -51532,7 +51495,7 @@
         <v>108</v>
       </c>
       <c r="AZ250" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BB250" s="1">
         <v>2</v>
@@ -51553,7 +51516,7 @@
         <v>112</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BI250" s="1" t="s">
         <v>403</v>
@@ -51568,13 +51531,13 @@
         <v>116</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BS250" s="3">
         <v>35243</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>119</v>
@@ -51592,13 +51555,13 @@
         <v>108</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="CD250" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="CD250" s="1" t="s">
+      <c r="CE250" s="1" t="s">
         <v>2465</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2466</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -51633,19 +51596,19 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2468</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2469</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="Q251" s="3">
         <v>28845</v>
@@ -51668,12 +51631,7 @@
       <c r="AA251" s="1">
         <v>0</v>
       </c>
-      <c r="AC251" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD251" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC251" s="3"/>
       <c r="AF251" s="1" t="s">
         <v>103</v>
       </c>
@@ -51723,7 +51681,7 @@
         <v>108</v>
       </c>
       <c r="AZ251" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BB251" s="1">
         <v>2</v>
@@ -51741,7 +51699,7 @@
         <v>112</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BI251" s="1" t="s">
         <v>194</v>
@@ -51753,7 +51711,7 @@
         <v>102</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>119</v>
@@ -51771,13 +51729,13 @@
         <v>108</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2476</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -51812,19 +51770,19 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2478</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2479</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="Q252" s="3">
         <v>21425</v>
@@ -51847,12 +51805,7 @@
       <c r="AA252" s="1">
         <v>0</v>
       </c>
-      <c r="AC252" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD252" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC252" s="3"/>
       <c r="AF252" s="1" t="s">
         <v>103</v>
       </c>
@@ -51902,7 +51855,7 @@
         <v>108</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BB252" s="1">
         <v>2</v>
@@ -51920,10 +51873,10 @@
         <v>112</v>
       </c>
       <c r="BH252" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="BI252" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="BI252" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>115</v>
@@ -51935,7 +51888,7 @@
         <v>158</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>119</v>
@@ -51953,13 +51906,13 @@
         <v>108</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="CD252" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="CD252" s="1" t="s">
+      <c r="CE252" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>2487</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -51994,19 +51947,19 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2489</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>2490</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="Q253" s="3">
         <v>23039</v>
@@ -52029,12 +51982,7 @@
       <c r="AA253" s="1">
         <v>0</v>
       </c>
-      <c r="AC253" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD253" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC253" s="3"/>
       <c r="AF253" s="1" t="s">
         <v>103</v>
       </c>
@@ -52081,7 +52029,7 @@
         <v>108</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BB253" s="1">
         <v>2</v>
@@ -52102,7 +52050,7 @@
         <v>112</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BI253" s="1" t="s">
         <v>494</v>
@@ -52117,13 +52065,13 @@
         <v>220</v>
       </c>
       <c r="BR253" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BS253" s="3">
         <v>34307</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>119</v>
@@ -52141,13 +52089,13 @@
         <v>108</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="CD253" s="1" t="s">
         <v>460</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -52182,19 +52130,19 @@
         <v>93</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2498</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="N254" s="1" t="s">
         <v>2499</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>2500</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="Q254" s="3">
         <v>23286</v>
@@ -52220,12 +52168,7 @@
       <c r="AA254" s="1">
         <v>0</v>
       </c>
-      <c r="AC254" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD254" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC254" s="3"/>
       <c r="AF254" s="1" t="s">
         <v>103</v>
       </c>
@@ -52275,7 +52218,7 @@
         <v>108</v>
       </c>
       <c r="AZ254" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BB254" s="1">
         <v>2</v>
@@ -52296,7 +52239,7 @@
         <v>112</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BI254" s="1" t="s">
         <v>194</v>
@@ -52308,7 +52251,7 @@
         <v>102</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>119</v>
@@ -52329,13 +52272,13 @@
         <v>108</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="CD254" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="CD254" s="1" t="s">
+      <c r="CE254" s="1" t="s">
         <v>2506</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>2507</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -52370,19 +52313,19 @@
         <v>93</v>
       </c>
       <c r="K255" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="L255" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="L255" s="1" t="s">
+      <c r="N255" s="1" t="s">
         <v>2509</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>2510</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="Q255" s="3">
         <v>26907</v>
@@ -52405,12 +52348,7 @@
       <c r="AA255" s="1">
         <v>0</v>
       </c>
-      <c r="AC255" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD255" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC255" s="3"/>
       <c r="AF255" s="1" t="s">
         <v>103</v>
       </c>
@@ -52457,7 +52395,7 @@
         <v>108</v>
       </c>
       <c r="AZ255" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BB255" s="1">
         <v>2</v>
@@ -52478,10 +52416,10 @@
         <v>112</v>
       </c>
       <c r="BH255" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="BI255" s="1" t="s">
         <v>2513</v>
-      </c>
-      <c r="BI255" s="1" t="s">
-        <v>2514</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>115</v>
@@ -52493,13 +52431,13 @@
         <v>116</v>
       </c>
       <c r="BR255" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BS255" s="3">
         <v>35950</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>119</v>
@@ -52517,13 +52455,13 @@
         <v>108</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>1786</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="256" spans="1:83" x14ac:dyDescent="0.25">
@@ -52558,19 +52496,19 @@
         <v>146</v>
       </c>
       <c r="K256" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="L256" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="L256" s="1" t="s">
+      <c r="N256" s="1" t="s">
         <v>2520</v>
-      </c>
-      <c r="N256" s="1" t="s">
-        <v>2521</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="Q256" s="3">
         <v>26349</v>
@@ -52615,7 +52553,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -52660,13 +52598,13 @@
         <v>112</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>119</v>
@@ -52690,10 +52628,10 @@
         <v>2273</v>
       </c>
       <c r="CD256" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="CE256" s="1" t="s">
         <v>2526</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>2527</v>
       </c>
     </row>
     <row r="257" spans="1:83" x14ac:dyDescent="0.25">
@@ -52728,19 +52666,19 @@
         <v>146</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2528</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="N257" s="1" t="s">
         <v>2529</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>2530</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="Q257" s="3">
         <v>30589</v>
@@ -52788,7 +52726,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AO257" s="1">
         <v>0</v>
@@ -52833,13 +52771,13 @@
         <v>112</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>119</v>
@@ -52860,13 +52798,13 @@
         <v>108</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="CD257" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="CD257" s="1" t="s">
+      <c r="CE257" s="1" t="s">
         <v>2535</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>2536</v>
       </c>
     </row>
     <row r="258" spans="1:83" x14ac:dyDescent="0.25">
@@ -52901,19 +52839,19 @@
         <v>146</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="L258" s="1" t="s">
+      <c r="N258" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="N258" s="1" t="s">
-        <v>2539</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="Q258" s="3">
         <v>27354</v>
@@ -52961,7 +52899,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AO258" s="1">
         <v>0</v>
@@ -53006,13 +52944,13 @@
         <v>112</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>119</v>
@@ -53033,13 +52971,13 @@
         <v>108</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="CD258" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="CD258" s="1" t="s">
+      <c r="CE258" s="1" t="s">
         <v>2544</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>2545</v>
       </c>
     </row>
     <row r="259" spans="1:83" x14ac:dyDescent="0.25">
@@ -53074,19 +53012,19 @@
         <v>146</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="N259" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="N259" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="Q259" s="3">
         <v>13756</v>
@@ -53176,13 +53114,13 @@
         <v>112</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>119</v>
@@ -53203,10 +53141,10 @@
         <v>108</v>
       </c>
       <c r="CC259" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="CE259" s="1" t="s">
         <v>211</v>
@@ -53244,19 +53182,19 @@
         <v>146</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2553</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="N260" s="1" t="s">
         <v>2554</v>
-      </c>
-      <c r="N260" s="1" t="s">
-        <v>2555</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P260" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="Q260" s="3">
         <v>26074</v>
@@ -53304,7 +53242,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AO260" s="1">
         <v>0</v>
@@ -53349,13 +53287,13 @@
         <v>112</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>119</v>
@@ -53379,13 +53317,13 @@
         <v>108</v>
       </c>
       <c r="CC260" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="CD260" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="261" spans="1:83" x14ac:dyDescent="0.25">
@@ -53420,19 +53358,19 @@
         <v>146</v>
       </c>
       <c r="K261" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L261" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="L261" s="1" t="s">
+      <c r="N261" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="N261" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="Q261" s="3">
         <v>28808</v>
@@ -53477,7 +53415,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -53522,13 +53460,13 @@
         <v>112</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>119</v>
@@ -53549,18 +53487,18 @@
         <v>108</v>
       </c>
       <c r="CC261" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="CD261" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="CE261" s="1" t="s">
         <v>2567</v>
-      </c>
-      <c r="CD261" s="1" t="s">
-        <v>2475</v>
-      </c>
-      <c r="CE261" s="1" t="s">
-        <v>2568</v>
       </c>
     </row>
     <row r="262" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>85</v>
@@ -53572,7 +53510,7 @@
         <v>126</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>108</v>
@@ -53584,22 +53522,22 @@
         <v>91</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K262" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="L262" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="L262" s="1" t="s">
+      <c r="M262" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="M262" s="1" t="s">
+      <c r="N262" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="N262" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="Q262" s="3">
         <v>21430</v>
@@ -53632,7 +53570,7 @@
         <v>41330</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>103</v>
@@ -53683,10 +53621,10 @@
         <v>108</v>
       </c>
       <c r="BH262" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="BI262" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="BI262" s="1" t="s">
-        <v>2578</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>115</v>
@@ -53695,7 +53633,7 @@
         <v>102</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>119</v>
@@ -53719,13 +53657,13 @@
         <v>108</v>
       </c>
       <c r="CC262" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="CD262" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="CD262" s="1" t="s">
+      <c r="CE262" s="1" t="s">
         <v>2581</v>
-      </c>
-      <c r="CE262" s="1" t="s">
-        <v>2582</v>
       </c>
     </row>
     <row r="263" spans="1:83" x14ac:dyDescent="0.25">
@@ -53760,16 +53698,16 @@
         <v>93</v>
       </c>
       <c r="K263" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="L263" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="L263" s="1" t="s">
+      <c r="M263" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="N263" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="M263" s="1" t="s">
-        <v>2574</v>
-      </c>
-      <c r="N263" s="1" t="s">
-        <v>2585</v>
       </c>
       <c r="Q263" s="3">
         <v>21965</v>
@@ -53796,13 +53734,13 @@
         <v>0</v>
       </c>
       <c r="AB263" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="AC263" s="3">
         <v>41579</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>103</v>
@@ -53850,13 +53788,13 @@
         <v>108</v>
       </c>
       <c r="AZ263" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BD263" s="1" t="s">
         <v>99</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>115</v>
@@ -53868,13 +53806,13 @@
         <v>220</v>
       </c>
       <c r="BR263" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BS263" s="3">
         <v>35087</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>119</v>
@@ -53895,13 +53833,13 @@
         <v>108</v>
       </c>
       <c r="CC263" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="CD263" s="1" t="s">
         <v>1638</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="264" spans="1:83" x14ac:dyDescent="0.25">
@@ -53918,7 +53856,7 @@
         <v>126</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>108</v>
@@ -53930,22 +53868,22 @@
         <v>91</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K264" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="L264" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="L264" s="1" t="s">
+      <c r="M264" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="N264" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>2574</v>
-      </c>
-      <c r="N264" s="1" t="s">
-        <v>2598</v>
       </c>
       <c r="Q264" s="3">
         <v>18241</v>
@@ -53972,7 +53910,7 @@
         <v>41759</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>103</v>
@@ -54002,28 +53940,28 @@
         <v>107</v>
       </c>
       <c r="AQ264" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="AR264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV264" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY264" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH264" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="AR264" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS264" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT264" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU264" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV264" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY264" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BH264" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>115</v>
@@ -54032,13 +53970,13 @@
         <v>116</v>
       </c>
       <c r="BR264" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BS264" s="3">
         <v>34292</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>119</v>
@@ -54059,7 +53997,7 @@
         <v>108</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="CD264" s="1" t="s">
         <v>1839</v>
@@ -54100,19 +54038,19 @@
         <v>93</v>
       </c>
       <c r="K265" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="L265" s="1" t="s">
         <v>2605</v>
       </c>
-      <c r="L265" s="1" t="s">
+      <c r="N265" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>2607</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P265" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="Q265" s="3">
         <v>23125</v>
@@ -54145,7 +54083,7 @@
         <v>42247</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>103</v>
@@ -54211,10 +54149,10 @@
         <v>112</v>
       </c>
       <c r="BH265" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="BI265" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="BI265" s="1" t="s">
-        <v>2611</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>115</v>
@@ -54226,13 +54164,13 @@
         <v>220</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="BS265" s="3">
         <v>36580</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>119</v>
@@ -54253,7 +54191,7 @@
         <v>108</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="CD265" s="1" t="s">
         <v>320</v>
@@ -54294,16 +54232,16 @@
         <v>93</v>
       </c>
       <c r="K266" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="L266" s="1" t="s">
         <v>2615</v>
       </c>
-      <c r="L266" s="1" t="s">
+      <c r="M266" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="N266" s="1" t="s">
         <v>2616</v>
-      </c>
-      <c r="M266" s="1" t="s">
-        <v>2574</v>
-      </c>
-      <c r="N266" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="Q266" s="3">
         <v>23356</v>
@@ -54326,12 +54264,7 @@
       <c r="AA266" s="1">
         <v>0</v>
       </c>
-      <c r="AC266" s="3">
-        <v>42308</v>
-      </c>
-      <c r="AD266" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC266" s="3"/>
       <c r="AF266" s="1" t="s">
         <v>103</v>
       </c>
@@ -54378,7 +54311,7 @@
         <v>108</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>115</v>
@@ -54390,13 +54323,13 @@
         <v>99</v>
       </c>
       <c r="BR266" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BS266" s="3">
         <v>34412</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>119</v>
@@ -54417,13 +54350,13 @@
         <v>108</v>
       </c>
       <c r="CC266" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="CD266" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="CD266" s="1" t="s">
+      <c r="CE266" s="1" t="s">
         <v>2622</v>
-      </c>
-      <c r="CE266" s="1" t="s">
-        <v>2623</v>
       </c>
     </row>
     <row r="267" spans="1:83" x14ac:dyDescent="0.25">
@@ -54461,10 +54394,10 @@
         <v>2244</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="N267" s="1" t="s">
         <v>2246</v>
@@ -54490,12 +54423,7 @@
       <c r="AA267" s="1">
         <v>0</v>
       </c>
-      <c r="AC267" s="3">
-        <v>42369</v>
-      </c>
-      <c r="AD267" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC267" s="3"/>
       <c r="AF267" s="1" t="s">
         <v>103</v>
       </c>
@@ -54545,10 +54473,10 @@
         <v>108</v>
       </c>
       <c r="BH267" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="BI267" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="BI267" s="1" t="s">
-        <v>2626</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>115</v>
@@ -54613,19 +54541,19 @@
         <v>93</v>
       </c>
       <c r="K268" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="L268" s="1" t="s">
         <v>2627</v>
       </c>
-      <c r="L268" s="1" t="s">
+      <c r="N268" s="1" t="s">
         <v>2628</v>
-      </c>
-      <c r="N268" s="1" t="s">
-        <v>2629</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P268" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="Q268" s="3">
         <v>24907</v>
@@ -54712,13 +54640,13 @@
         <v>112</v>
       </c>
       <c r="BH268" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="BI268" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="BI268" s="1" t="s">
+      <c r="BJ268" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="BJ268" s="1" t="s">
-        <v>2633</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>115</v>
@@ -54733,7 +54661,7 @@
         <v>35679</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>119</v>
@@ -54751,7 +54679,7 @@
         <v>89</v>
       </c>
       <c r="CC268" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="CD268" s="1" t="s">
         <v>284</v>
@@ -54792,19 +54720,19 @@
         <v>93</v>
       </c>
       <c r="K269" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="L269" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="L269" s="1" t="s">
+      <c r="N269" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="N269" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P269" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="Q269" s="3">
         <v>28642</v>
@@ -54879,7 +54807,7 @@
         <v>108</v>
       </c>
       <c r="AZ269" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BB269" s="1">
         <v>2</v>
@@ -54897,7 +54825,7 @@
         <v>112</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>115</v>
@@ -54906,7 +54834,7 @@
         <v>102</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>119</v>
@@ -54924,13 +54852,13 @@
         <v>108</v>
       </c>
       <c r="CC269" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="CD269" s="1" t="s">
         <v>460</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="270" spans="1:83" x14ac:dyDescent="0.25">
@@ -54965,19 +54893,19 @@
         <v>93</v>
       </c>
       <c r="K270" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="L270" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="L270" s="1" t="s">
+      <c r="N270" s="1" t="s">
         <v>2646</v>
-      </c>
-      <c r="N270" s="1" t="s">
-        <v>2647</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="Q270" s="3">
         <v>28239</v>
@@ -55049,7 +54977,7 @@
         <v>108</v>
       </c>
       <c r="AZ270" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BB270" s="1">
         <v>2</v>
@@ -55067,7 +54995,7 @@
         <v>112</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="BI270" s="1" t="s">
         <v>1877</v>
@@ -55082,13 +55010,13 @@
         <v>220</v>
       </c>
       <c r="BR270" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="BS270" s="3">
         <v>36099</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>119</v>
@@ -55106,13 +55034,13 @@
         <v>108</v>
       </c>
       <c r="CC270" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="CD270" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="CD270" s="1" t="s">
+      <c r="CE270" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>2655</v>
       </c>
     </row>
     <row r="271" spans="1:83" x14ac:dyDescent="0.25">
@@ -55147,19 +55075,19 @@
         <v>93</v>
       </c>
       <c r="K271" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="L271" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="L271" s="1" t="s">
+      <c r="N271" s="1" t="s">
         <v>2657</v>
-      </c>
-      <c r="N271" s="1" t="s">
-        <v>2658</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P271" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="Q271" s="3">
         <v>25589</v>
@@ -55231,7 +55159,7 @@
         <v>108</v>
       </c>
       <c r="AZ271" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BB271" s="1">
         <v>2</v>
@@ -55249,7 +55177,7 @@
         <v>112</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="BM271" s="1" t="s">
         <v>115</v>
@@ -55261,13 +55189,13 @@
         <v>99</v>
       </c>
       <c r="BR271" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BS271" s="3">
         <v>37735</v>
       </c>
       <c r="BT271" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BU271" s="1" t="s">
         <v>119</v>
@@ -55285,13 +55213,13 @@
         <v>108</v>
       </c>
       <c r="CC271" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="CD271" s="1" t="s">
         <v>2664</v>
       </c>
-      <c r="CD271" s="1" t="s">
+      <c r="CE271" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="CE271" s="1" t="s">
-        <v>2666</v>
       </c>
     </row>
     <row r="272" spans="1:83" x14ac:dyDescent="0.25">
@@ -55326,19 +55254,19 @@
         <v>93</v>
       </c>
       <c r="K272" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="L272" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="L272" s="1" t="s">
+      <c r="N272" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="N272" s="1" t="s">
-        <v>2669</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P272" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="Q272" s="3">
         <v>29170</v>
@@ -55413,7 +55341,7 @@
         <v>108</v>
       </c>
       <c r="AZ272" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="BB272" s="1">
         <v>2</v>
@@ -55431,7 +55359,7 @@
         <v>112</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="BM272" s="1" t="s">
         <v>115</v>
@@ -55440,7 +55368,7 @@
         <v>102</v>
       </c>
       <c r="BT272" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="BU272" s="1" t="s">
         <v>119</v>
@@ -55458,13 +55386,13 @@
         <v>108</v>
       </c>
       <c r="CC272" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="CD272" s="1" t="s">
         <v>895</v>
       </c>
       <c r="CE272" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="273" spans="1:84" x14ac:dyDescent="0.25">
@@ -55499,19 +55427,19 @@
         <v>93</v>
       </c>
       <c r="K273" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="L273" s="1" t="s">
         <v>2676</v>
       </c>
-      <c r="L273" s="1" t="s">
+      <c r="N273" s="1" t="s">
         <v>2677</v>
-      </c>
-      <c r="N273" s="1" t="s">
-        <v>2678</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P273" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="Q273" s="3">
         <v>27250</v>
@@ -55541,7 +55469,7 @@
         <v>103</v>
       </c>
       <c r="AG273" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="AH273" s="1" t="s">
         <v>1897</v>
@@ -55586,7 +55514,7 @@
         <v>108</v>
       </c>
       <c r="AZ273" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="BB273" s="1">
         <v>2</v>
@@ -55604,7 +55532,7 @@
         <v>112</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="BM273" s="1" t="s">
         <v>115</v>
@@ -55613,7 +55541,7 @@
         <v>102</v>
       </c>
       <c r="BT273" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="BU273" s="1" t="s">
         <v>119</v>
@@ -55634,10 +55562,10 @@
         <v>1586</v>
       </c>
       <c r="CD273" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="CE273" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="CE273" s="1" t="s">
-        <v>2685</v>
       </c>
     </row>
     <row r="274" spans="1:84" x14ac:dyDescent="0.25">
@@ -55672,19 +55600,19 @@
         <v>93</v>
       </c>
       <c r="K274" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="L274" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="L274" s="1" t="s">
+      <c r="N274" s="1" t="s">
         <v>2687</v>
-      </c>
-      <c r="N274" s="1" t="s">
-        <v>2688</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P274" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="Q274" s="3">
         <v>27999</v>
@@ -55759,7 +55687,7 @@
         <v>108</v>
       </c>
       <c r="AZ274" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BB274" s="1">
         <v>2</v>
@@ -55777,7 +55705,7 @@
         <v>112</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>115</v>
@@ -55786,7 +55714,7 @@
         <v>102</v>
       </c>
       <c r="BT274" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BU274" s="1" t="s">
         <v>119</v>
@@ -55810,7 +55738,7 @@
         <v>978</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="275" spans="1:84" x14ac:dyDescent="0.25">
@@ -55845,19 +55773,19 @@
         <v>93</v>
       </c>
       <c r="K275" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="L275" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="L275" s="1" t="s">
+      <c r="N275" s="1" t="s">
         <v>2695</v>
-      </c>
-      <c r="N275" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P275" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="Q275" s="3">
         <v>29305</v>
@@ -55890,7 +55818,7 @@
         <v>688</v>
       </c>
       <c r="AH275" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="AI275" s="1" t="s">
         <v>108</v>
@@ -55932,7 +55860,7 @@
         <v>108</v>
       </c>
       <c r="AZ275" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="BB275" s="1">
         <v>2</v>
@@ -55950,7 +55878,7 @@
         <v>112</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="BM275" s="1" t="s">
         <v>115</v>
@@ -55959,7 +55887,7 @@
         <v>102</v>
       </c>
       <c r="BT275" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="BU275" s="1" t="s">
         <v>119</v>
@@ -55977,13 +55905,13 @@
         <v>108</v>
       </c>
       <c r="CC275" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="CD275" s="1" t="s">
         <v>2702</v>
       </c>
-      <c r="CD275" s="1" t="s">
+      <c r="CE275" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="CE275" s="1" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="276" spans="1:84" x14ac:dyDescent="0.25">
@@ -56018,19 +55946,19 @@
         <v>146</v>
       </c>
       <c r="K276" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="L276" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="L276" s="1" t="s">
+      <c r="N276" s="1" t="s">
         <v>2706</v>
-      </c>
-      <c r="N276" s="1" t="s">
-        <v>2707</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P276" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="R276" s="1" t="s">
         <v>133</v>
@@ -56066,7 +55994,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -56105,13 +56033,13 @@
         <v>112</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="BM276" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT276" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="BU276" s="1" t="s">
         <v>119</v>
@@ -56129,13 +56057,13 @@
         <v>108</v>
       </c>
       <c r="CC276" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="CD276" s="1" t="s">
         <v>331</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="277" spans="1:84" x14ac:dyDescent="0.25">
@@ -56170,16 +56098,16 @@
         <v>93</v>
       </c>
       <c r="K277" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="L277" s="1" t="s">
         <v>2714</v>
       </c>
-      <c r="L277" s="1" t="s">
+      <c r="M277" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="N277" s="1" t="s">
         <v>2715</v>
-      </c>
-      <c r="M277" s="1" t="s">
-        <v>2574</v>
-      </c>
-      <c r="N277" s="1" t="s">
-        <v>2716</v>
       </c>
       <c r="Q277" s="3">
         <v>18523</v>
@@ -56212,7 +56140,7 @@
         <v>42379</v>
       </c>
       <c r="AD277" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="AF277" s="1" t="s">
         <v>252</v>
@@ -56242,37 +56170,37 @@
         <v>253</v>
       </c>
       <c r="AQ277" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="AR277" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS277" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT277" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU277" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV277" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY277" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ277" s="1" t="s">
         <v>2718</v>
-      </c>
-      <c r="AR277" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS277" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT277" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU277" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV277" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY277" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AZ277" s="1" t="s">
-        <v>2719</v>
       </c>
       <c r="BD277" s="1" t="s">
         <v>436</v>
       </c>
       <c r="BH277" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="BI277" s="1" t="s">
         <v>2720</v>
-      </c>
-      <c r="BI277" s="1" t="s">
-        <v>2721</v>
       </c>
       <c r="BM277" s="1" t="s">
         <v>115</v>
@@ -56284,13 +56212,13 @@
         <v>116</v>
       </c>
       <c r="BR277" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="BS277" s="3">
         <v>35206</v>
       </c>
       <c r="BT277" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="BU277" s="1" t="s">
         <v>119</v>
@@ -56311,10 +56239,10 @@
         <v>714</v>
       </c>
       <c r="CD277" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="CE277" s="1" t="s">
         <v>2724</v>
-      </c>
-      <c r="CE277" s="1" t="s">
-        <v>2725</v>
       </c>
     </row>
     <row r="278" spans="1:84" x14ac:dyDescent="0.25">
@@ -56349,16 +56277,16 @@
         <v>93</v>
       </c>
       <c r="K278" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="L278" s="1" t="s">
         <v>2726</v>
       </c>
-      <c r="L278" s="1" t="s">
+      <c r="M278" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="N278" s="1" t="s">
         <v>2727</v>
-      </c>
-      <c r="M278" s="1" t="s">
-        <v>2574</v>
-      </c>
-      <c r="N278" s="1" t="s">
-        <v>2728</v>
       </c>
       <c r="Q278" s="3">
         <v>25092</v>
@@ -56388,7 +56316,7 @@
         <v>42369</v>
       </c>
       <c r="AD278" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="AF278" s="1" t="s">
         <v>103</v>
@@ -56436,13 +56364,13 @@
         <v>108</v>
       </c>
       <c r="AZ278" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="BD278" s="1" t="s">
         <v>99</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="BM278" s="1" t="s">
         <v>115</v>
@@ -56454,13 +56382,13 @@
         <v>99</v>
       </c>
       <c r="BR278" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="BS278" s="3">
         <v>36301</v>
       </c>
       <c r="BT278" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="BU278" s="1" t="s">
         <v>119</v>
@@ -56484,13 +56412,13 @@
         <v>108</v>
       </c>
       <c r="CC278" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="CD278" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="CD278" s="1" t="s">
+      <c r="CE278" s="1" t="s">
         <v>2735</v>
-      </c>
-      <c r="CE278" s="1" t="s">
-        <v>2736</v>
       </c>
     </row>
     <row r="279" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -56639,7 +56567,7 @@
         <v>112</v>
       </c>
       <c r="BH279" s="4" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="BI279" s="4"/>
       <c r="BJ279" s="4"/>
@@ -56845,7 +56773,7 @@
         <v>112</v>
       </c>
       <c r="BH280" s="4" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="BI280" s="4"/>
       <c r="BJ280" s="4"/>
@@ -57041,7 +56969,7 @@
         <v>112</v>
       </c>
       <c r="BH281" s="4" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="BI281" s="4"/>
       <c r="BJ281" s="4"/>
@@ -57246,7 +57174,7 @@
         <v>112</v>
       </c>
       <c r="BH282" s="4" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="BI282" s="4"/>
       <c r="BJ282" s="4"/>
@@ -57451,7 +57379,7 @@
         <v>112</v>
       </c>
       <c r="BH283" s="4" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="BI283" s="4"/>
       <c r="BJ283" s="4"/>
@@ -57645,7 +57573,7 @@
         <v>112</v>
       </c>
       <c r="BH284" s="4" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="BI284" s="4"/>
       <c r="BJ284" s="4"/>
@@ -57839,7 +57767,7 @@
         <v>112</v>
       </c>
       <c r="BH285" s="4" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="BI285" s="4"/>
       <c r="BJ285" s="4"/>
@@ -58035,7 +57963,7 @@
         <v>112</v>
       </c>
       <c r="BH286" s="4" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="BI286" s="4"/>
       <c r="BJ286" s="4"/>
@@ -58229,7 +58157,7 @@
         <v>112</v>
       </c>
       <c r="BH287" s="4" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BI287" s="4"/>
       <c r="BJ287" s="4"/>
@@ -58423,7 +58351,7 @@
         <v>112</v>
       </c>
       <c r="BH288" s="4" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="BI288" s="4"/>
       <c r="BJ288" s="4"/>
@@ -58617,7 +58545,7 @@
         <v>112</v>
       </c>
       <c r="BH289" s="4" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BI289" s="4"/>
       <c r="BJ289" s="4"/>
@@ -58811,7 +58739,7 @@
         <v>112</v>
       </c>
       <c r="BH290" s="4" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="BI290" s="4"/>
       <c r="BJ290" s="4"/>
@@ -59009,7 +58937,7 @@
         <v>112</v>
       </c>
       <c r="BH291" s="4" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="BI291" s="4"/>
       <c r="BJ291" s="4"/>
@@ -59203,7 +59131,7 @@
         <v>112</v>
       </c>
       <c r="BH292" s="4" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="BI292" s="4"/>
       <c r="BJ292" s="4"/>
@@ -59397,7 +59325,7 @@
         <v>112</v>
       </c>
       <c r="BH293" s="4" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="BI293" s="4"/>
       <c r="BJ293" s="4"/>
@@ -59591,7 +59519,7 @@
         <v>112</v>
       </c>
       <c r="BH294" s="4" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="BI294" s="4"/>
       <c r="BJ294" s="4"/>
@@ -59790,7 +59718,7 @@
         <v>112</v>
       </c>
       <c r="BH295" s="4" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="BI295" s="4"/>
       <c r="BJ295" s="4"/>
@@ -59989,7 +59917,7 @@
         <v>112</v>
       </c>
       <c r="BH296" s="4" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="BI296" s="4"/>
       <c r="BJ296" s="4"/>
@@ -60193,7 +60121,7 @@
         <v>112</v>
       </c>
       <c r="BH297" s="4" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="BI297" s="4"/>
       <c r="BJ297" s="4"/>
@@ -60397,7 +60325,7 @@
         <v>112</v>
       </c>
       <c r="BH298" s="4" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="BI298" s="4"/>
       <c r="BJ298" s="4"/>
@@ -60602,7 +60530,7 @@
         <v>112</v>
       </c>
       <c r="BH299" s="4" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="BI299" s="4"/>
       <c r="BJ299" s="4"/>
@@ -60808,7 +60736,7 @@
         <v>112</v>
       </c>
       <c r="BH300" s="4" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="BI300" s="4"/>
       <c r="BJ300" s="4"/>
@@ -61009,7 +60937,7 @@
         <v>112</v>
       </c>
       <c r="BH301" s="4" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="BI301" s="4"/>
       <c r="BJ301" s="4"/>
@@ -61205,7 +61133,7 @@
         <v>112</v>
       </c>
       <c r="BH302" s="4" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="BI302" s="4"/>
       <c r="BJ302" s="4"/>
@@ -61399,7 +61327,7 @@
         <v>112</v>
       </c>
       <c r="BH303" s="4" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="BI303" s="4"/>
       <c r="BJ303" s="4"/>
@@ -61602,7 +61530,7 @@
         <v>112</v>
       </c>
       <c r="BH304" s="4" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BI304" s="4"/>
       <c r="BJ304" s="4"/>
@@ -61794,7 +61722,7 @@
         <v>112</v>
       </c>
       <c r="BH305" s="4" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="BI305" s="4"/>
       <c r="BJ305" s="4"/>
@@ -61993,7 +61921,7 @@
         <v>112</v>
       </c>
       <c r="BH306" s="4" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="BI306" s="4"/>
       <c r="BJ306" s="4"/>
@@ -62192,7 +62120,7 @@
         <v>112</v>
       </c>
       <c r="BH307" s="4" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="BI307" s="4"/>
       <c r="BJ307" s="4"/>
@@ -62394,7 +62322,7 @@
         <v>112</v>
       </c>
       <c r="BH308" s="4" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="BI308" s="4"/>
       <c r="BJ308" s="4"/>
@@ -62597,7 +62525,7 @@
         <v>112</v>
       </c>
       <c r="BH309" s="4" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BI309" s="4"/>
       <c r="BJ309" s="4"/>
@@ -62791,7 +62719,7 @@
         <v>112</v>
       </c>
       <c r="BH310" s="4" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="BI310" s="4"/>
       <c r="BJ310" s="4"/>
@@ -62985,7 +62913,7 @@
         <v>112</v>
       </c>
       <c r="BH311" s="4" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="BI311" s="4"/>
       <c r="BJ311" s="4"/>
@@ -63180,7 +63108,7 @@
         <v>112</v>
       </c>
       <c r="BH312" s="4" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="BI312" s="4"/>
       <c r="BJ312" s="4"/>
@@ -63375,7 +63303,7 @@
         <v>112</v>
       </c>
       <c r="BH313" s="4" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="BI313" s="4"/>
       <c r="BJ313" s="4"/>
@@ -63570,7 +63498,7 @@
         <v>112</v>
       </c>
       <c r="BH314" s="4" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="BI314" s="4"/>
       <c r="BJ314" s="4"/>
@@ -63767,7 +63695,7 @@
         <v>112</v>
       </c>
       <c r="BH315" s="4" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="BI315" s="4"/>
       <c r="BJ315" s="4"/>
@@ -63959,7 +63887,7 @@
         <v>112</v>
       </c>
       <c r="BH316" s="4" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="BI316" s="4"/>
       <c r="BJ316" s="4"/>
@@ -64162,7 +64090,7 @@
         <v>112</v>
       </c>
       <c r="BH317" s="4" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="BI317" s="4"/>
       <c r="BJ317" s="4"/>
@@ -64358,7 +64286,7 @@
         <v>112</v>
       </c>
       <c r="BH318" s="4" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="BI318" s="4"/>
       <c r="BJ318" s="4"/>
@@ -64554,7 +64482,7 @@
         <v>112</v>
       </c>
       <c r="BH319" s="4" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="BI319" s="4"/>
       <c r="BJ319" s="4"/>
@@ -64750,7 +64678,7 @@
         <v>112</v>
       </c>
       <c r="BH320" s="4" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="BI320" s="4"/>
       <c r="BJ320" s="4"/>
@@ -64946,7 +64874,7 @@
         <v>112</v>
       </c>
       <c r="BH321" s="4" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="BI321" s="4"/>
       <c r="BJ321" s="4"/>
@@ -65138,7 +65066,7 @@
         <v>112</v>
       </c>
       <c r="BH322" s="4" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="BI322" s="4"/>
       <c r="BJ322" s="4"/>
@@ -65225,14 +65153,14 @@
         <v>93</v>
       </c>
       <c r="K323" s="4" t="s">
+        <v>2406</v>
+      </c>
+      <c r="L323" s="4" t="s">
         <v>2407</v>
-      </c>
-      <c r="L323" s="4" t="s">
-        <v>2408</v>
       </c>
       <c r="M323" s="4"/>
       <c r="N323" s="4" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="O323" s="4" t="s">
         <v>97</v>
@@ -65267,12 +65195,8 @@
       <c r="AB323" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="AC323" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD323" s="4" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC323" s="5"/>
+      <c r="AD323" s="4"/>
       <c r="AF323" s="4" t="s">
         <v>103</v>
       </c>
@@ -65326,7 +65250,7 @@
         <v>108</v>
       </c>
       <c r="AZ323" s="4" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BA323" s="4" t="s">
         <v>303</v>
@@ -65344,7 +65268,7 @@
         <v>112</v>
       </c>
       <c r="BH323" s="4" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="BI323" s="4"/>
       <c r="BJ323" s="4"/>
@@ -65362,13 +65286,13 @@
       <c r="BP323" s="4"/>
       <c r="BQ323" s="4"/>
       <c r="BR323" s="4" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BS323" s="5">
         <v>36949</v>
       </c>
       <c r="BT323" s="4" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BU323" s="4" t="s">
         <v>119</v>
@@ -65393,13 +65317,13 @@
         <v>108</v>
       </c>
       <c r="CC323" s="4" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="CD323" s="4" t="s">
         <v>1964</v>
       </c>
       <c r="CE323" s="4" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="CF323" s="4"/>
     </row>
@@ -65435,14 +65359,14 @@
         <v>93</v>
       </c>
       <c r="K324" s="4" t="s">
+        <v>2416</v>
+      </c>
+      <c r="L324" s="4" t="s">
         <v>2417</v>
-      </c>
-      <c r="L324" s="4" t="s">
-        <v>2418</v>
       </c>
       <c r="M324" s="4"/>
       <c r="N324" s="4" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="O324" s="4" t="s">
         <v>97</v>
@@ -65477,12 +65401,8 @@
       <c r="AB324" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="AC324" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD324" s="4" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC324" s="5"/>
+      <c r="AD324" s="4"/>
       <c r="AF324" s="4" t="s">
         <v>103</v>
       </c>
@@ -65536,7 +65456,7 @@
         <v>108</v>
       </c>
       <c r="AZ324" s="4" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BA324" s="4" t="s">
         <v>303</v>
@@ -65556,7 +65476,7 @@
         <v>112</v>
       </c>
       <c r="BH324" s="4" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="BI324" s="4"/>
       <c r="BJ324" s="4"/>
@@ -65574,13 +65494,13 @@
       <c r="BP324" s="4"/>
       <c r="BQ324" s="4"/>
       <c r="BR324" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BS324" s="5">
         <v>36825</v>
       </c>
       <c r="BT324" s="4" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BU324" s="4" t="s">
         <v>119</v>
@@ -65605,13 +65525,13 @@
         <v>108</v>
       </c>
       <c r="CC324" s="4" t="s">
+        <v>2425</v>
+      </c>
+      <c r="CD324" s="4" t="s">
         <v>2426</v>
       </c>
-      <c r="CD324" s="4" t="s">
+      <c r="CE324" s="4" t="s">
         <v>2427</v>
-      </c>
-      <c r="CE324" s="4" t="s">
-        <v>2428</v>
       </c>
       <c r="CF324" s="4"/>
     </row>
@@ -65647,14 +65567,14 @@
         <v>146</v>
       </c>
       <c r="K325" s="4" t="s">
+        <v>2527</v>
+      </c>
+      <c r="L325" s="4" t="s">
         <v>2528</v>
-      </c>
-      <c r="L325" s="4" t="s">
-        <v>2529</v>
       </c>
       <c r="M325" s="4"/>
       <c r="N325" s="4" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="O325" s="4" t="s">
         <v>97</v>
@@ -65713,7 +65633,7 @@
         <v>0</v>
       </c>
       <c r="AN325" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AO325" s="4">
         <v>0</v>
@@ -65761,7 +65681,7 @@
         <v>112</v>
       </c>
       <c r="BH325" s="4" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="BI325" s="4"/>
       <c r="BJ325" s="4"/>
@@ -65776,7 +65696,7 @@
       <c r="BQ325" s="4"/>
       <c r="BR325" s="4"/>
       <c r="BT325" s="4" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BU325" s="4" t="s">
         <v>119</v>
@@ -65799,13 +65719,13 @@
         <v>108</v>
       </c>
       <c r="CC325" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="CD325" s="4" t="s">
         <v>2534</v>
       </c>
-      <c r="CD325" s="4" t="s">
+      <c r="CE325" s="4" t="s">
         <v>2535</v>
-      </c>
-      <c r="CE325" s="4" t="s">
-        <v>2536</v>
       </c>
       <c r="CF325" s="4"/>
     </row>
@@ -65841,14 +65761,14 @@
         <v>146</v>
       </c>
       <c r="K326" s="4" t="s">
+        <v>2536</v>
+      </c>
+      <c r="L326" s="4" t="s">
         <v>2537</v>
-      </c>
-      <c r="L326" s="4" t="s">
-        <v>2538</v>
       </c>
       <c r="M326" s="4"/>
       <c r="N326" s="4" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="O326" s="4" t="s">
         <v>97</v>
@@ -65907,7 +65827,7 @@
         <v>0</v>
       </c>
       <c r="AN326" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AO326" s="4">
         <v>0</v>
@@ -65955,7 +65875,7 @@
         <v>112</v>
       </c>
       <c r="BH326" s="4" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="BI326" s="4"/>
       <c r="BJ326" s="4"/>
@@ -65970,7 +65890,7 @@
       <c r="BQ326" s="4"/>
       <c r="BR326" s="4"/>
       <c r="BT326" s="4" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BU326" s="4" t="s">
         <v>119</v>
@@ -65993,13 +65913,13 @@
         <v>108</v>
       </c>
       <c r="CC326" s="4" t="s">
+        <v>2542</v>
+      </c>
+      <c r="CD326" s="4" t="s">
         <v>2543</v>
       </c>
-      <c r="CD326" s="4" t="s">
+      <c r="CE326" s="4" t="s">
         <v>2544</v>
-      </c>
-      <c r="CE326" s="4" t="s">
-        <v>2545</v>
       </c>
       <c r="CF326" s="4"/>
     </row>
@@ -66035,14 +65955,14 @@
         <v>146</v>
       </c>
       <c r="K327" s="4" t="s">
+        <v>2552</v>
+      </c>
+      <c r="L327" s="4" t="s">
         <v>2553</v>
-      </c>
-      <c r="L327" s="4" t="s">
-        <v>2554</v>
       </c>
       <c r="M327" s="4"/>
       <c r="N327" s="4" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="O327" s="4" t="s">
         <v>97</v>
@@ -66101,7 +66021,7 @@
         <v>0</v>
       </c>
       <c r="AN327" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AO327" s="4">
         <v>0</v>
@@ -66149,7 +66069,7 @@
         <v>112</v>
       </c>
       <c r="BH327" s="4" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="BI327" s="4"/>
       <c r="BJ327" s="4"/>
@@ -66164,7 +66084,7 @@
       <c r="BQ327" s="4"/>
       <c r="BR327" s="4"/>
       <c r="BT327" s="4" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BU327" s="4" t="s">
         <v>119</v>
@@ -66189,13 +66109,13 @@
         <v>108</v>
       </c>
       <c r="CC327" s="4" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="CD327" s="4" t="s">
         <v>1262</v>
       </c>
       <c r="CE327" s="4" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="CF327" s="4"/>
     </row>
@@ -66231,13 +66151,13 @@
         <v>93</v>
       </c>
       <c r="K328" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="L328" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="L328" s="1" t="s">
+      <c r="N328" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="N328" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="O328" s="1" t="s">
         <v>97</v>
@@ -66321,7 +66241,7 @@
         <v>108</v>
       </c>
       <c r="AZ328" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BA328" s="1" t="s">
         <v>303</v>
@@ -66342,13 +66262,13 @@
         <v>112</v>
       </c>
       <c r="BH328" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="BM328" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT328" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BU328" s="1" t="s">
         <v>119</v>
@@ -66366,13 +66286,13 @@
         <v>108</v>
       </c>
       <c r="CC328" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="CD328" s="1" t="s">
         <v>460</v>
       </c>
       <c r="CE328" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="329" spans="1:84" x14ac:dyDescent="0.25">
@@ -66407,13 +66327,13 @@
         <v>93</v>
       </c>
       <c r="K329" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="L329" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="L329" s="1" t="s">
+      <c r="N329" s="1" t="s">
         <v>2646</v>
-      </c>
-      <c r="N329" s="1" t="s">
-        <v>2647</v>
       </c>
       <c r="O329" s="1" t="s">
         <v>97</v>
@@ -66494,7 +66414,7 @@
         <v>108</v>
       </c>
       <c r="AZ329" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BA329" s="1" t="s">
         <v>303</v>
@@ -66515,7 +66435,7 @@
         <v>112</v>
       </c>
       <c r="BH329" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="BM329" s="1" t="s">
         <v>115</v>
@@ -66524,13 +66444,13 @@
         <v>220</v>
       </c>
       <c r="BR329" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="BS329" s="3">
         <v>36099</v>
       </c>
       <c r="BT329" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BU329" s="1" t="s">
         <v>119</v>
@@ -66548,13 +66468,13 @@
         <v>108</v>
       </c>
       <c r="CC329" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="CD329" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="CD329" s="1" t="s">
+      <c r="CE329" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="CE329" s="1" t="s">
-        <v>2655</v>
       </c>
     </row>
     <row r="330" spans="1:84" x14ac:dyDescent="0.25">
@@ -66589,16 +66509,16 @@
         <v>93</v>
       </c>
       <c r="K330" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="L330" s="1" t="s">
         <v>2656</v>
-      </c>
-      <c r="L330" s="1" t="s">
-        <v>2657</v>
       </c>
       <c r="M330" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N330" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="O330" s="1" t="s">
         <v>97</v>
@@ -66679,7 +66599,7 @@
         <v>108</v>
       </c>
       <c r="AZ330" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BA330" s="1" t="s">
         <v>303</v>
@@ -66700,7 +66620,7 @@
         <v>112</v>
       </c>
       <c r="BH330" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="BM330" s="1" t="s">
         <v>115</v>
@@ -66709,13 +66629,13 @@
         <v>99</v>
       </c>
       <c r="BR330" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BS330" s="3">
         <v>37735</v>
       </c>
       <c r="BT330" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BU330" s="1" t="s">
         <v>119</v>
@@ -66733,13 +66653,13 @@
         <v>108</v>
       </c>
       <c r="CC330" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="CD330" s="1" t="s">
         <v>2664</v>
       </c>
-      <c r="CD330" s="1" t="s">
+      <c r="CE330" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="CE330" s="1" t="s">
-        <v>2666</v>
       </c>
     </row>
     <row r="331" spans="1:84" x14ac:dyDescent="0.25">
@@ -66774,13 +66694,13 @@
         <v>93</v>
       </c>
       <c r="K331" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="L331" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="L331" s="1" t="s">
+      <c r="N331" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="N331" s="1" t="s">
-        <v>2669</v>
       </c>
       <c r="O331" s="1" t="s">
         <v>97</v>
@@ -66864,7 +66784,7 @@
         <v>108</v>
       </c>
       <c r="AZ331" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="BA331" s="1" t="s">
         <v>303</v>
@@ -66885,13 +66805,13 @@
         <v>112</v>
       </c>
       <c r="BH331" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="BM331" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT331" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="BU331" s="1" t="s">
         <v>119</v>
@@ -66909,13 +66829,13 @@
         <v>108</v>
       </c>
       <c r="CC331" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="CD331" s="1" t="s">
         <v>895</v>
       </c>
       <c r="CE331" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="332" spans="1:84" x14ac:dyDescent="0.25">
@@ -66950,13 +66870,13 @@
         <v>93</v>
       </c>
       <c r="K332" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="L332" s="1" t="s">
         <v>2676</v>
       </c>
-      <c r="L332" s="1" t="s">
+      <c r="N332" s="1" t="s">
         <v>2677</v>
-      </c>
-      <c r="N332" s="1" t="s">
-        <v>2678</v>
       </c>
       <c r="O332" s="1" t="s">
         <v>97</v>
@@ -66992,7 +66912,7 @@
         <v>103</v>
       </c>
       <c r="AG332" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="AH332" s="1" t="s">
         <v>1897</v>
@@ -67040,7 +66960,7 @@
         <v>108</v>
       </c>
       <c r="AZ332" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="BA332" s="1" t="s">
         <v>303</v>
@@ -67061,13 +66981,13 @@
         <v>112</v>
       </c>
       <c r="BH332" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="BM332" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT332" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="BU332" s="1" t="s">
         <v>119</v>
@@ -67088,10 +67008,10 @@
         <v>1586</v>
       </c>
       <c r="CD332" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="CE332" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="CE332" s="1" t="s">
-        <v>2685</v>
       </c>
     </row>
     <row r="333" spans="1:84" x14ac:dyDescent="0.25">
@@ -67126,13 +67046,13 @@
         <v>93</v>
       </c>
       <c r="K333" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="L333" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="L333" s="1" t="s">
+      <c r="N333" s="1" t="s">
         <v>2687</v>
-      </c>
-      <c r="N333" s="1" t="s">
-        <v>2688</v>
       </c>
       <c r="O333" s="1" t="s">
         <v>97</v>
@@ -67216,7 +67136,7 @@
         <v>108</v>
       </c>
       <c r="AZ333" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BA333" s="1" t="s">
         <v>303</v>
@@ -67237,13 +67157,13 @@
         <v>112</v>
       </c>
       <c r="BH333" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="BM333" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT333" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BU333" s="1" t="s">
         <v>119</v>
@@ -67267,7 +67187,7 @@
         <v>978</v>
       </c>
       <c r="CE333" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="334" spans="1:84" x14ac:dyDescent="0.25">
@@ -67302,13 +67222,13 @@
         <v>93</v>
       </c>
       <c r="K334" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="L334" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="L334" s="1" t="s">
+      <c r="N334" s="1" t="s">
         <v>2695</v>
-      </c>
-      <c r="N334" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="O334" s="1" t="s">
         <v>97</v>
@@ -67347,7 +67267,7 @@
         <v>688</v>
       </c>
       <c r="AH334" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="AI334" s="1" t="s">
         <v>108</v>
@@ -67392,7 +67312,7 @@
         <v>108</v>
       </c>
       <c r="AZ334" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="BA334" s="1" t="s">
         <v>303</v>
@@ -67413,13 +67333,13 @@
         <v>112</v>
       </c>
       <c r="BH334" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="BM334" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT334" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="BU334" s="1" t="s">
         <v>119</v>
@@ -67437,16 +67357,17 @@
         <v>108</v>
       </c>
       <c r="CC334" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="CD334" s="1" t="s">
         <v>2702</v>
       </c>
-      <c r="CD334" s="1" t="s">
+      <c r="CE334" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="CE334" s="1" t="s">
-        <v>2704</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF334" xr:uid="{CB0D744F-9934-464E-8321-464E49320E35}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>